--- a/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -117,9 +117,6 @@
     <t>clickonnewloan</t>
   </si>
   <si>
-    <t>1064-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment</t>
-  </si>
-  <si>
     <t>submitteddateon</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>disburseloan</t>
+  </si>
+  <si>
+    <t>5RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME</t>
   </si>
 </sst>
 </file>
@@ -207,10 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -228,9 +227,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -550,7 +546,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -560,7 +556,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -568,115 +564,115 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="14">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14">
         <v>42005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="14">
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="16">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="16">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -687,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -704,127 +700,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>10000</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <v>10000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>1581.47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>685.07</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>685.07</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>193.97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -837,7 +821,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -911,652 +895,558 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
         <v>42005</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3">
         <v>10000</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>31</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>42036</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>785.8</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>101.92</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>28</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>42064</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>795.67</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>8418.5300000000007</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>92.05</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>31</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>42095</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>785.8</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>7632.73</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>101.92</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>42125</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>812.44</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>6820.29</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>75.28</v>
       </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>31</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>42156</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>818.21</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>6002.08</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>69.510000000000005</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>30</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>42186</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>828.52</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>5173.5600000000004</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>59.2</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>31</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>42217</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>834.99</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>4338.57</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>52.73</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>31</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>42248</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>843.5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>3495.07</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>44.22</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>30</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>42278</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>853.25</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>2641.82</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>34.47</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>31</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>42309</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>860.8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>1781.02</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>26.92</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>30</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>42339</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>870.15</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>910.87</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>17.57</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>31</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>42370</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>910.87</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>9.2799999999999994</v>
       </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>920.15</v>
       </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
         <v>920.15</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -147,8 +152,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +167,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -222,12 +222,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -251,6 +245,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -299,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +329,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,6 +381,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -556,7 +587,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -564,114 +595,114 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>42005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>42005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>42005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>42005</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -683,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,7 +730,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -719,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>10000</v>
       </c>
@@ -737,7 +768,7 @@
         <v>1581.47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>685.07</v>
       </c>
@@ -757,7 +788,7 @@
         <v>193.97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -777,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -796,19 +827,6 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,10 +836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,12 +857,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -884,17 +903,18 @@
       <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
@@ -921,8 +941,9 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -958,15 +979,16 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1002,15 +1024,16 @@
       <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1046,15 +1069,16 @@
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1090,15 +1114,16 @@
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1134,15 +1159,16 @@
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1178,15 +1204,16 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1222,15 +1249,16 @@
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1266,15 +1294,16 @@
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1310,15 +1339,16 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1354,15 +1384,16 @@
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1398,15 +1429,16 @@
       <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1442,11 +1474,12 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
         <v>920.15</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/5-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -152,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -296,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,26 +324,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,23 +359,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -838,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
